--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1335677.501123883</v>
+        <v>1334354.937311947</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.033948784</v>
+        <v>5866991.033948781</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783678.472736052</v>
+        <v>1783678.472736051</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>235.9777725383934</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>181.5448872019592</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.63388649156</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>181.8523372487124</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -885,7 +885,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>69.90798579419391</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>307.3304720805055</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -1065,7 +1065,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>25.45099468012255</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>54.68688746169084</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.67188320071078</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>114.7605550430047</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
@@ -1147,10 +1147,10 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>224.508595795419</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>193.5927947728079</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1390,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>39.64108301376439</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>212.4250515358842</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1435,7 +1435,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>146.9568991155872</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>108.092220790938</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -1596,7 +1596,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1615,19 +1615,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>372.3536886992978</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>59.82422708687632</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>17.1944024615252</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -1821,10 +1821,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>227.5041307701016</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>49.12308702887178</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -1903,7 +1903,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>123.2715627317515</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>48.01732390352666</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2067,7 +2067,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>231.9383353088699</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,22 +2086,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>401.5578040935733</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2304,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>179.3230888550395</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2338,7 +2338,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I23" t="n">
-        <v>78.88597920914968</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508507</v>
       </c>
       <c r="U23" t="n">
         <v>254.4761865113606</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>133.5215535887318</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>116.2108915191152</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2557,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>258.2090680641879</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2572,10 +2572,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H26" t="n">
-        <v>306.0455584304623</v>
+        <v>79.34530250563822</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>66.07896560696142</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>236.8250266956711</v>
@@ -2772,13 +2772,13 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V28" t="n">
-        <v>3.703125929618804</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2809,10 +2809,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H29" t="n">
-        <v>79.34530250563819</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I29" t="n">
-        <v>78.88597920914968</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.0258162860864</v>
+        <v>122.5603156417023</v>
       </c>
       <c r="T29" t="n">
-        <v>219.234755280439</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.4761865113606</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>183.1891117048806</v>
@@ -3006,16 +3006,16 @@
         <v>236.8250266956711</v>
       </c>
       <c r="U31" t="n">
-        <v>233.7920454221333</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>81.61484808406473</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3040,7 +3040,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>269.005831210175</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.4697473695408</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508516</v>
       </c>
       <c r="U32" t="n">
         <v>254.4761865113606</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
-        <v>105.3269179642815</v>
+        <v>35.65662016362045</v>
       </c>
       <c r="U34" t="n">
         <v>279.9659758737533</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3271,7 +3271,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>173.7190346830469</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3286,7 +3286,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I35" t="n">
-        <v>78.88597920914968</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>153.2224419313603</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>130.2815172923346</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>29.64093969977962</v>
       </c>
       <c r="I37" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9659758737533</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H38" t="n">
-        <v>79.34530250563822</v>
+        <v>288.2570980008746</v>
       </c>
       <c r="I38" t="n">
-        <v>78.88597920914967</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.234755280439</v>
@@ -3666,10 +3666,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -3678,7 +3678,7 @@
         <v>165.5010685613433</v>
       </c>
       <c r="H40" t="n">
-        <v>73.27733585685719</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>201.1143039597204</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>183.4965574034482</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3802,7 +3802,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>153.2224419313594</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>112.8724405582094</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>80.96594743848279</v>
+        <v>67.93288263236528</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>236.8250266956711</v>
       </c>
       <c r="U43" t="n">
-        <v>89.93723448672736</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.4697473695408</v>
+        <v>177.7694914447167</v>
       </c>
       <c r="H44" t="n">
         <v>306.0455584304623</v>
@@ -4033,7 +4033,7 @@
         <v>219.234755280439</v>
       </c>
       <c r="U44" t="n">
-        <v>27.77593058653722</v>
+        <v>254.4761865113606</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>89.0489279290292</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>96.28612425180248</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.990926276226</v>
+        <v>722.2287622341209</v>
       </c>
       <c r="C2" t="n">
-        <v>326.9067396299002</v>
+        <v>312.104171547391</v>
       </c>
       <c r="D2" t="n">
-        <v>326.4832137633648</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E2" t="n">
-        <v>316.1834023206656</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4336,16 +4336,16 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>1329.636426430007</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O2" t="n">
-        <v>1329.636426430007</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003114</v>
+        <v>1132.44994189861</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>497.571341894901</v>
       </c>
       <c r="L3" t="n">
-        <v>751.4208778585607</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M3" t="n">
-        <v>1268.263812524886</v>
+        <v>1531.257211227552</v>
       </c>
       <c r="N3" t="n">
-        <v>1268.263812524886</v>
+        <v>2048.100145893877</v>
       </c>
       <c r="O3" t="n">
-        <v>1268.263812524886</v>
+        <v>2048.100145893877</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>2048.100145893877</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>592.1650041644873</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C4" t="n">
-        <v>421.0716317262038</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D4" t="n">
-        <v>421.0716317262038</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>260.1608165945233</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>260.1608165945233</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>92.9104255200667</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>92.9104255200667</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V4" t="n">
-        <v>1297.278237189974</v>
+        <v>1302.202034381698</v>
       </c>
       <c r="W4" t="n">
-        <v>1018.208572698848</v>
+        <v>1023.132369890572</v>
       </c>
       <c r="X4" t="n">
-        <v>779.8647105585317</v>
+        <v>784.7885077502552</v>
       </c>
       <c r="Y4" t="n">
-        <v>779.8647105585317</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>636.5689113792441</v>
+        <v>1292.371709779047</v>
       </c>
       <c r="C5" t="n">
-        <v>226.4443206925142</v>
+        <v>1286.287523132721</v>
       </c>
       <c r="D5" t="n">
-        <v>226.0207948259788</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E5" t="n">
-        <v>215.7209833832796</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F5" t="n">
-        <v>198.7309753773712</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,25 +4570,25 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>1250.250340018485</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V5" t="n">
-        <v>1831.193789739612</v>
+        <v>1298.552485403132</v>
       </c>
       <c r="W5" t="n">
-        <v>1447.433488874781</v>
+        <v>1298.552485403132</v>
       </c>
       <c r="X5" t="n">
-        <v>1046.790091043734</v>
+        <v>1298.552485403132</v>
       </c>
       <c r="Y5" t="n">
-        <v>1046.790091043734</v>
+        <v>1298.552485403132</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1221.566882129793</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129793</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129793</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.1290119472964</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="C7" t="n">
-        <v>555.1290119472964</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D7" t="n">
-        <v>395.6343672702064</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E7" t="n">
-        <v>234.7235521385259</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F7" t="n">
-        <v>234.7235521385259</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G7" t="n">
-        <v>67.47316106406927</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>67.47316106406927</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4761,16 +4761,16 @@
         <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1297.278237189974</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>1018.208572698848</v>
+        <v>1515.924701986118</v>
       </c>
       <c r="X7" t="n">
-        <v>779.8647105585317</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="Y7" t="n">
-        <v>555.1290119472964</v>
+        <v>1052.845141234566</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1292.371709779047</v>
+        <v>500.9945609524824</v>
       </c>
       <c r="C8" t="n">
-        <v>882.247119092317</v>
+        <v>385.0748083837908</v>
       </c>
       <c r="D8" t="n">
-        <v>477.7831891853775</v>
+        <v>384.6512825172554</v>
       </c>
       <c r="E8" t="n">
-        <v>467.4833777426783</v>
+        <v>374.3514710745562</v>
       </c>
       <c r="F8" t="n">
-        <v>450.4933697367699</v>
+        <v>357.3614630686478</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
         <v>41.76508562960205</v>
@@ -4804,28 +4804,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>176.0078249962696</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>692.8507596625949</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>692.8507596625949</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M8" t="n">
-        <v>692.8507596625949</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N8" t="n">
-        <v>692.8507596625949</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O8" t="n">
-        <v>1209.69369432892</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>1730.766722221062</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V8" t="n">
-        <v>1380.929167557543</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W8" t="n">
-        <v>1380.929167557543</v>
+        <v>1312.152413668882</v>
       </c>
       <c r="X8" t="n">
-        <v>1380.929167557543</v>
+        <v>1312.152413668882</v>
       </c>
       <c r="Y8" t="n">
-        <v>1380.929167557543</v>
+        <v>911.2157406169719</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
@@ -4886,16 +4886,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M9" t="n">
-        <v>558.6080202959273</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784821</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O9" t="n">
         <v>1541.851827451147</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>377.4895839572943</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="C10" t="n">
-        <v>206.3962115190108</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="D10" t="n">
-        <v>206.3962115190108</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="E10" t="n">
-        <v>206.3962115190108</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4992,22 +4992,22 @@
         <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1072.72313641645</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>789.9249889625739</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>789.9249889625739</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>789.9249889625739</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="X10" t="n">
-        <v>789.9249889625739</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="Y10" t="n">
-        <v>565.1892903513386</v>
+        <v>307.7185867198193</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2502.881125286859</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C11" t="n">
-        <v>2092.756534600129</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.29260469319</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>1273.952389210086</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>852.921977163774</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>444.1936930566062</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>133.2851956843242</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5074,19 +5074,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4090.126566144943</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>3740.289011481424</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3356.528710616592</v>
       </c>
       <c r="X11" t="n">
-        <v>3314.038978003258</v>
+        <v>2955.885312785545</v>
       </c>
       <c r="Y11" t="n">
-        <v>2913.102304951348</v>
+        <v>2554.948639733635</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>549.0499539559215</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N12" t="n">
-        <v>1422.708046067539</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>406.3161358179984</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="C13" t="n">
         <v>257.8748235800315</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1513.458532906485</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1273.909793883187</v>
       </c>
       <c r="U13" t="n">
-        <v>1111.429368843485</v>
+        <v>1273.909793883187</v>
       </c>
       <c r="V13" t="n">
-        <v>1111.429368843485</v>
+        <v>1000.024048822709</v>
       </c>
       <c r="W13" t="n">
-        <v>832.3597043523594</v>
+        <v>720.9543843315835</v>
       </c>
       <c r="X13" t="n">
-        <v>594.0158422120428</v>
+        <v>482.6105221912669</v>
       </c>
       <c r="Y13" t="n">
-        <v>594.0158422120428</v>
+        <v>257.8748235800315</v>
       </c>
     </row>
     <row r="14">
@@ -5263,16 +5263,16 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E14" t="n">
-        <v>1287.649206862142</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F14" t="n">
-        <v>866.6187948158295</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>464.5807072718708</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>153.6722098995888</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5281,7 +5281,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5360,25 +5360,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>844.5103911440685</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N15" t="n">
-        <v>844.5103911440685</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O15" t="n">
-        <v>1548.467481689963</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.9445253234496</v>
+        <v>712.5646329884455</v>
       </c>
       <c r="C16" t="n">
-        <v>242.8511528851661</v>
+        <v>541.471260550162</v>
       </c>
       <c r="D16" t="n">
-        <v>242.8511528851661</v>
+        <v>541.471260550162</v>
       </c>
       <c r="E16" t="n">
-        <v>242.8511528851661</v>
+        <v>541.471260550162</v>
       </c>
       <c r="F16" t="n">
-        <v>242.8511528851661</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G16" t="n">
-        <v>242.8511528851661</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1622.642594311473</v>
+        <v>1605.274511017003</v>
       </c>
       <c r="S16" t="n">
-        <v>1436.250826191383</v>
+        <v>1418.882742896913</v>
       </c>
       <c r="T16" t="n">
-        <v>1196.702087168085</v>
+        <v>1179.334003873616</v>
       </c>
       <c r="U16" t="n">
-        <v>966.8999348750533</v>
+        <v>1179.334003873616</v>
       </c>
       <c r="V16" t="n">
-        <v>693.0141898145753</v>
+        <v>1179.334003873616</v>
       </c>
       <c r="W16" t="n">
-        <v>413.9445253234496</v>
+        <v>900.2643393824899</v>
       </c>
       <c r="X16" t="n">
-        <v>413.9445253234496</v>
+        <v>900.2643393824899</v>
       </c>
       <c r="Y16" t="n">
-        <v>413.9445253234496</v>
+        <v>900.2643393824899</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2512.458907120301</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>2102.334316433571</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1697.870386526632</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1283.530171043528</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>862.4997589972158</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>453.771474890048</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>142.862977517766</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5518,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>423.0977207349383</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>423.0977207349383</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>1266.074801429505</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1574.140246934173</v>
       </c>
       <c r="T19" t="n">
-        <v>1350.978107866783</v>
+        <v>1334.591507910875</v>
       </c>
       <c r="U19" t="n">
-        <v>1068.179960412907</v>
+        <v>1051.793360457</v>
       </c>
       <c r="V19" t="n">
-        <v>794.2942153524291</v>
+        <v>777.9076153965216</v>
       </c>
       <c r="W19" t="n">
-        <v>515.2245508613034</v>
+        <v>498.837950905396</v>
       </c>
       <c r="X19" t="n">
-        <v>280.9434040846672</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="Y19" t="n">
-        <v>280.9434040846672</v>
+        <v>260.4940887650794</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.262653899312</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>946.9113481625727</v>
       </c>
       <c r="M21" t="n">
-        <v>754.331869609911</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="N21" t="n">
-        <v>1627.989961721529</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O21" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P21" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5934,25 +5934,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>554.7454763291312</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>275.6758118380055</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>93.2436976906228</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
         <v>93.2436976906228</v>
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2315.763990092808</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C23" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D23" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F23" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G23" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H23" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I23" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J23" t="n">
-        <v>365.9950463732505</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477956</v>
+        <v>925.7208439477954</v>
       </c>
       <c r="L23" t="n">
         <v>1665.067141547877</v>
@@ -6004,37 +6004,37 @@
         <v>3254.588416372259</v>
       </c>
       <c r="O23" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P23" t="n">
-        <v>4480.322041270216</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q23" t="n">
-        <v>4819.791607344926</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R23" t="n">
-        <v>4870.998205338187</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S23" t="n">
-        <v>4739.658996968403</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T23" t="n">
-        <v>4518.209749210384</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U23" t="n">
-        <v>4261.163096168606</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V23" t="n">
-        <v>3911.325541505087</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W23" t="n">
-        <v>3527.565240640255</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X23" t="n">
-        <v>3126.921842809208</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y23" t="n">
-        <v>2725.985169757298</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I24" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J24" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="K24" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="L24" t="n">
         <v>778.2043133443128</v>
       </c>
       <c r="M24" t="n">
-        <v>843.7713392023624</v>
+        <v>1644.165903960623</v>
       </c>
       <c r="N24" t="n">
-        <v>1741.022272820809</v>
+        <v>1644.165903960623</v>
       </c>
       <c r="O24" t="n">
-        <v>1741.022272820809</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="P24" t="n">
-        <v>1741.022272820809</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="Q24" t="n">
-        <v>2102.446124327753</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R24" t="n">
         <v>2137.637783597812</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>545.3927201303344</v>
+        <v>403.3835926952814</v>
       </c>
       <c r="C25" t="n">
-        <v>374.2993476920509</v>
+        <v>232.2902202569979</v>
       </c>
       <c r="D25" t="n">
-        <v>214.8047030149609</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E25" t="n">
-        <v>214.8047030149609</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F25" t="n">
-        <v>214.8047030149609</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G25" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H25" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I25" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J25" t="n">
         <v>116.8792779475707</v>
@@ -6171,28 +6171,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R25" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S25" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T25" t="n">
-        <v>1196.171987275931</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="U25" t="n">
-        <v>1196.171987275931</v>
+        <v>1419.418562998437</v>
       </c>
       <c r="V25" t="n">
-        <v>1196.171987275931</v>
+        <v>1145.532817937959</v>
       </c>
       <c r="W25" t="n">
-        <v>1196.171987275931</v>
+        <v>866.4631534468333</v>
       </c>
       <c r="X25" t="n">
-        <v>957.8281251356141</v>
+        <v>628.1192913065167</v>
       </c>
       <c r="Y25" t="n">
-        <v>733.0924265243788</v>
+        <v>403.3835926952814</v>
       </c>
     </row>
     <row r="26">
@@ -6205,22 +6205,22 @@
         <v>2315.763990092807</v>
       </c>
       <c r="C26" t="n">
-        <v>2054.94674962393</v>
+        <v>1905.639399406077</v>
       </c>
       <c r="D26" t="n">
-        <v>1650.482819716991</v>
+        <v>1501.175469499138</v>
       </c>
       <c r="E26" t="n">
-        <v>1236.142604233887</v>
+        <v>1086.835254016034</v>
       </c>
       <c r="F26" t="n">
-        <v>815.1121921875749</v>
+        <v>665.804841969722</v>
       </c>
       <c r="G26" t="n">
-        <v>406.5568918143014</v>
+        <v>257.2495415964485</v>
       </c>
       <c r="H26" t="n">
-        <v>97.41996410676373</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I26" t="n">
         <v>97.41996410676373</v>
@@ -6229,13 +6229,13 @@
         <v>365.9950463732503</v>
       </c>
       <c r="K26" t="n">
-        <v>925.7208439477956</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L26" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M26" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N26" t="n">
         <v>3254.588416372259</v>
@@ -6244,7 +6244,7 @@
         <v>3926.785084202962</v>
       </c>
       <c r="P26" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q26" t="n">
         <v>4819.791607344925</v>
@@ -6317,7 +6317,7 @@
         <v>769.2575309382119</v>
       </c>
       <c r="N27" t="n">
-        <v>1161.994247859146</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O27" t="n">
         <v>1161.994247859146</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>405.8321779075371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="C28" t="n">
-        <v>405.8321779075371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="D28" t="n">
-        <v>246.3375332304472</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E28" t="n">
-        <v>246.3375332304472</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F28" t="n">
-        <v>246.3375332304472</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G28" t="n">
-        <v>246.3375332304472</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H28" t="n">
         <v>97.41996410676373</v>
@@ -6387,7 +6387,7 @@
         <v>116.8792779475707</v>
       </c>
       <c r="K28" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L28" t="n">
         <v>551.4710044025715</v>
@@ -6408,28 +6408,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R28" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S28" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T28" t="n">
-        <v>1196.171987275931</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U28" t="n">
-        <v>913.3780722519373</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V28" t="n">
-        <v>909.6375410098981</v>
+        <v>906.3156192554629</v>
       </c>
       <c r="W28" t="n">
-        <v>630.5678765187724</v>
+        <v>627.2459547643373</v>
       </c>
       <c r="X28" t="n">
-        <v>630.5678765187724</v>
+        <v>388.9020926240207</v>
       </c>
       <c r="Y28" t="n">
-        <v>405.8321779075371</v>
+        <v>164.1663940127854</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2315.763990092807</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C29" t="n">
-        <v>1905.639399406077</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D29" t="n">
-        <v>1501.175469499138</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E29" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F29" t="n">
-        <v>665.804841969722</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G29" t="n">
-        <v>257.2495415964485</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H29" t="n">
         <v>177.1027713887331</v>
@@ -6463,22 +6463,22 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J29" t="n">
-        <v>365.9950463732501</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L29" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M29" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N29" t="n">
         <v>3254.588416372259</v>
       </c>
       <c r="O29" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P29" t="n">
         <v>4480.322041270215</v>
@@ -6490,25 +6490,25 @@
         <v>4870.998205338186</v>
       </c>
       <c r="S29" t="n">
-        <v>4739.658996968402</v>
+        <v>4747.199906710204</v>
       </c>
       <c r="T29" t="n">
-        <v>4518.209749210383</v>
+        <v>4747.199906710204</v>
       </c>
       <c r="U29" t="n">
-        <v>4261.163096168605</v>
+        <v>4490.153253668426</v>
       </c>
       <c r="V29" t="n">
-        <v>3911.325541505086</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W29" t="n">
-        <v>3527.565240640254</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X29" t="n">
-        <v>3126.921842809207</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y29" t="n">
-        <v>2725.985169757297</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J30" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K30" t="n">
-        <v>567.8743197625565</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L30" t="n">
-        <v>567.8743197625565</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M30" t="n">
-        <v>843.7713392023624</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N30" t="n">
-        <v>1741.022272820809</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O30" t="n">
-        <v>1741.022272820809</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P30" t="n">
         <v>1741.022272820809</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>268.5133365450472</v>
+        <v>417.8254239155343</v>
       </c>
       <c r="C31" t="n">
-        <v>97.41996410676373</v>
+        <v>417.8254239155343</v>
       </c>
       <c r="D31" t="n">
-        <v>97.41996410676373</v>
+        <v>258.3307792384443</v>
       </c>
       <c r="E31" t="n">
         <v>97.41996410676373</v>
@@ -6624,7 +6624,7 @@
         <v>116.8792779475707</v>
       </c>
       <c r="K31" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L31" t="n">
         <v>551.4710044025715</v>
@@ -6645,28 +6645,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R31" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S31" t="n">
-        <v>1435.389185958427</v>
+        <v>1517.172971249824</v>
       </c>
       <c r="T31" t="n">
-        <v>1196.171987275931</v>
+        <v>1277.955772567328</v>
       </c>
       <c r="U31" t="n">
-        <v>960.0184060414525</v>
+        <v>1277.955772567328</v>
       </c>
       <c r="V31" t="n">
-        <v>960.0184060414525</v>
+        <v>1004.07002750685</v>
       </c>
       <c r="W31" t="n">
-        <v>680.9487415503269</v>
+        <v>725.0003630157239</v>
       </c>
       <c r="X31" t="n">
-        <v>680.9487415503269</v>
+        <v>642.5611225267696</v>
       </c>
       <c r="Y31" t="n">
-        <v>456.2130429390916</v>
+        <v>417.8254239155343</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2315.763990092807</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C32" t="n">
-        <v>1905.639399406077</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D32" t="n">
-        <v>1501.175469499138</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E32" t="n">
-        <v>1086.835254016034</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F32" t="n">
         <v>815.1121921875749</v>
@@ -6694,13 +6694,13 @@
         <v>406.5568918143014</v>
       </c>
       <c r="H32" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I32" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J32" t="n">
-        <v>365.9950463732501</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K32" t="n">
         <v>925.7208439477954</v>
@@ -6715,37 +6715,37 @@
         <v>3254.588416372259</v>
       </c>
       <c r="O32" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P32" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q32" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344926</v>
       </c>
       <c r="R32" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="S32" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="T32" t="n">
-        <v>4518.209749210383</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U32" t="n">
-        <v>4261.163096168605</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V32" t="n">
-        <v>3911.325541505086</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W32" t="n">
-        <v>3527.565240640254</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X32" t="n">
-        <v>3126.921842809207</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y32" t="n">
-        <v>2725.985169757297</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I33" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J33" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="K33" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="L33" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="M33" t="n">
-        <v>97.41996410676373</v>
+        <v>963.3815547230744</v>
       </c>
       <c r="N33" t="n">
-        <v>994.6708977252102</v>
+        <v>1860.632488341521</v>
       </c>
       <c r="O33" t="n">
-        <v>1720.210829014135</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="P33" t="n">
-        <v>1741.022272820809</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="Q33" t="n">
-        <v>2102.446124327753</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R33" t="n">
         <v>2137.637783597812</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>268.5133365450472</v>
+        <v>268.5133365450473</v>
       </c>
       <c r="C34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="D34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="E34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="F34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="G34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="H34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J34" t="n">
         <v>116.8792779475707</v>
       </c>
       <c r="K34" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L34" t="n">
         <v>551.4710044025715</v>
@@ -6882,28 +6882,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R34" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S34" t="n">
-        <v>1435.389185958427</v>
+        <v>1517.172971249824</v>
       </c>
       <c r="T34" t="n">
-        <v>1328.99835973188</v>
+        <v>1481.156183205763</v>
       </c>
       <c r="U34" t="n">
-        <v>1046.204444707886</v>
+        <v>1198.362268181769</v>
       </c>
       <c r="V34" t="n">
-        <v>772.3186996474082</v>
+        <v>1198.362268181769</v>
       </c>
       <c r="W34" t="n">
-        <v>493.2490351562825</v>
+        <v>919.2926036906435</v>
       </c>
       <c r="X34" t="n">
-        <v>493.2490351562825</v>
+        <v>680.948741550327</v>
       </c>
       <c r="Y34" t="n">
-        <v>268.5133365450472</v>
+        <v>456.2130429390917</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2315.763990092808</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C35" t="n">
-        <v>1905.639399406078</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D35" t="n">
         <v>1730.16562699896</v>
@@ -6937,7 +6937,7 @@
         <v>97.41996410676374</v>
       </c>
       <c r="J35" t="n">
-        <v>365.9950463732505</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K35" t="n">
         <v>925.7208439477954</v>
@@ -6976,13 +6976,13 @@
         <v>3911.325541505087</v>
       </c>
       <c r="W35" t="n">
-        <v>3527.565240640255</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X35" t="n">
-        <v>3126.921842809208</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y35" t="n">
-        <v>2725.985169757298</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>298.8031752824191</v>
       </c>
       <c r="K36" t="n">
-        <v>298.8031752824191</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L36" t="n">
-        <v>979.5875245199682</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M36" t="n">
-        <v>979.5875245199682</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N36" t="n">
-        <v>1876.838458138415</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O36" t="n">
-        <v>1876.838458138415</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P36" t="n">
-        <v>2102.446124327753</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q36" t="n">
         <v>2102.446124327753</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>675.0342101116207</v>
+        <v>454.0277484415536</v>
       </c>
       <c r="C37" t="n">
-        <v>503.9408376733372</v>
+        <v>454.0277484415536</v>
       </c>
       <c r="D37" t="n">
-        <v>503.9408376733372</v>
+        <v>294.5331037644636</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0300225416567</v>
+        <v>294.5331037644636</v>
       </c>
       <c r="F37" t="n">
-        <v>211.4325303271773</v>
+        <v>294.5331037644636</v>
       </c>
       <c r="G37" t="n">
-        <v>211.4325303271773</v>
+        <v>127.3603072378543</v>
       </c>
       <c r="H37" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I37" t="n">
         <v>97.41996410676374</v>
@@ -7119,28 +7119,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R37" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S37" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T37" t="n">
-        <v>1196.171987275931</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="U37" t="n">
-        <v>913.3780722519373</v>
+        <v>1419.418562998437</v>
       </c>
       <c r="V37" t="n">
-        <v>913.3780722519373</v>
+        <v>1145.532817937959</v>
       </c>
       <c r="W37" t="n">
-        <v>913.3780722519373</v>
+        <v>866.4631534468333</v>
       </c>
       <c r="X37" t="n">
-        <v>675.0342101116207</v>
+        <v>866.4631534468333</v>
       </c>
       <c r="Y37" t="n">
-        <v>675.0342101116207</v>
+        <v>641.727454835598</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2315.763990092807</v>
+        <v>2447.103198462592</v>
       </c>
       <c r="C38" t="n">
-        <v>1905.639399406077</v>
+        <v>2036.978607775862</v>
       </c>
       <c r="D38" t="n">
-        <v>1501.175469499138</v>
+        <v>1632.514677868922</v>
       </c>
       <c r="E38" t="n">
-        <v>1086.835254016034</v>
+        <v>1218.174462385819</v>
       </c>
       <c r="F38" t="n">
-        <v>665.804841969722</v>
+        <v>797.1440503395065</v>
       </c>
       <c r="G38" t="n">
-        <v>257.2495415964485</v>
+        <v>388.588749966233</v>
       </c>
       <c r="H38" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I38" t="n">
         <v>97.41996410676373</v>
@@ -7180,10 +7180,10 @@
         <v>925.7208439477954</v>
       </c>
       <c r="L38" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M38" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N38" t="n">
         <v>3254.588416372259</v>
@@ -7201,25 +7201,25 @@
         <v>4870.998205338186</v>
       </c>
       <c r="S38" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T38" t="n">
-        <v>4518.209749210383</v>
+        <v>4649.548957580168</v>
       </c>
       <c r="U38" t="n">
-        <v>4261.163096168605</v>
+        <v>4392.50230453839</v>
       </c>
       <c r="V38" t="n">
-        <v>3911.325541505086</v>
+        <v>4042.66474987487</v>
       </c>
       <c r="W38" t="n">
-        <v>3527.565240640254</v>
+        <v>3658.904449010039</v>
       </c>
       <c r="X38" t="n">
-        <v>3126.921842809207</v>
+        <v>3258.261051178991</v>
       </c>
       <c r="Y38" t="n">
-        <v>2725.985169757297</v>
+        <v>2857.324378127081</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J39" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L39" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M39" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N39" t="n">
-        <v>994.6708977252102</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O39" t="n">
-        <v>1558.609758636149</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P39" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q39" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R39" t="n">
         <v>2137.637783597812</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4002.615141920434</v>
+        <v>761.2280740927458</v>
       </c>
       <c r="C40" t="n">
-        <v>3831.521769482151</v>
+        <v>590.1347016544623</v>
       </c>
       <c r="D40" t="n">
-        <v>3672.027124805061</v>
+        <v>590.1347016544623</v>
       </c>
       <c r="E40" t="n">
-        <v>3672.027124805061</v>
+        <v>429.2238865227819</v>
       </c>
       <c r="F40" t="n">
-        <v>3507.395998915652</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="G40" t="n">
-        <v>3340.223202389042</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H40" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I40" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J40" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K40" t="n">
-        <v>3449.053008630019</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L40" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M40" t="n">
-        <v>4021.442036604621</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N40" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O40" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P40" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q40" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R40" t="n">
-        <v>4789.214420046789</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S40" t="n">
-        <v>4789.214420046789</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T40" t="n">
-        <v>4789.214420046789</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U40" t="n">
-        <v>4506.420505022796</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="V40" t="n">
-        <v>4506.420505022796</v>
+        <v>1189.109534279456</v>
       </c>
       <c r="W40" t="n">
-        <v>4227.35084053167</v>
+        <v>985.9637727039811</v>
       </c>
       <c r="X40" t="n">
-        <v>4227.35084053167</v>
+        <v>985.9637727039811</v>
       </c>
       <c r="Y40" t="n">
-        <v>4002.615141920434</v>
+        <v>761.2280740927458</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2315.763990092807</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C41" t="n">
-        <v>1905.639399406077</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D41" t="n">
-        <v>1501.175469499138</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E41" t="n">
         <v>1315.825411515857</v>
@@ -7450,13 +7450,13 @@
         <v>3911.325541505086</v>
       </c>
       <c r="W41" t="n">
-        <v>3527.565240640254</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X41" t="n">
-        <v>3126.921842809207</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y41" t="n">
-        <v>2725.985169757297</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J42" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K42" t="n">
-        <v>567.8743197625565</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L42" t="n">
-        <v>567.8743197625565</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M42" t="n">
-        <v>567.8743197625565</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N42" t="n">
-        <v>567.8743197625565</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O42" t="n">
-        <v>1293.414251051481</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P42" t="n">
-        <v>1776.213932090868</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q42" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R42" t="n">
         <v>2137.637783597812</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4185.26578490308</v>
+        <v>370.9271750042673</v>
       </c>
       <c r="C43" t="n">
-        <v>4014.172412464796</v>
+        <v>370.9271750042673</v>
       </c>
       <c r="D43" t="n">
-        <v>3854.677767787706</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="E43" t="n">
-        <v>3693.766952656026</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="F43" t="n">
-        <v>3529.135826766617</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="G43" t="n">
-        <v>3529.135826766617</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="H43" t="n">
-        <v>3380.218257642934</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I43" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J43" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K43" t="n">
-        <v>3449.053008630019</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L43" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M43" t="n">
-        <v>4021.442036604621</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N43" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O43" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P43" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q43" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R43" t="n">
-        <v>4789.214420046789</v>
+        <v>1633.593404656405</v>
       </c>
       <c r="S43" t="n">
-        <v>4789.214420046789</v>
+        <v>1633.593404656405</v>
       </c>
       <c r="T43" t="n">
-        <v>4549.997221364293</v>
+        <v>1394.376205973909</v>
       </c>
       <c r="U43" t="n">
-        <v>4459.151529963558</v>
+        <v>1111.582290949915</v>
       </c>
       <c r="V43" t="n">
-        <v>4185.26578490308</v>
+        <v>837.6965458894373</v>
       </c>
       <c r="W43" t="n">
-        <v>4185.26578490308</v>
+        <v>558.6268813983116</v>
       </c>
       <c r="X43" t="n">
-        <v>4185.26578490308</v>
+        <v>558.6268813983116</v>
       </c>
       <c r="Y43" t="n">
-        <v>4185.26578490308</v>
+        <v>558.6268813983116</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2544.754147592629</v>
+        <v>2315.763990092807</v>
       </c>
       <c r="C44" t="n">
-        <v>2134.629556905899</v>
+        <v>1905.639399406077</v>
       </c>
       <c r="D44" t="n">
-        <v>1730.16562699896</v>
+        <v>1501.175469499138</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.825411515857</v>
+        <v>1086.835254016034</v>
       </c>
       <c r="F44" t="n">
-        <v>894.7949994695443</v>
+        <v>665.804841969722</v>
       </c>
       <c r="G44" t="n">
         <v>486.2396990962708</v>
@@ -7681,19 +7681,19 @@
         <v>4518.209749210383</v>
       </c>
       <c r="U44" t="n">
-        <v>4490.153253668426</v>
+        <v>4261.163096168605</v>
       </c>
       <c r="V44" t="n">
-        <v>4140.315699004907</v>
+        <v>3911.325541505086</v>
       </c>
       <c r="W44" t="n">
-        <v>3756.555398140076</v>
+        <v>3527.565240640254</v>
       </c>
       <c r="X44" t="n">
-        <v>3355.912000309029</v>
+        <v>3126.921842809207</v>
       </c>
       <c r="Y44" t="n">
-        <v>2954.975327257119</v>
+        <v>2725.985169757297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3505.438158345676</v>
+        <v>772.0777366053014</v>
       </c>
       <c r="C45" t="n">
-        <v>3371.443087094622</v>
+        <v>638.0826653542472</v>
       </c>
       <c r="D45" t="n">
-        <v>3254.545929314014</v>
+        <v>521.1855075736396</v>
       </c>
       <c r="E45" t="n">
-        <v>3134.053113306342</v>
+        <v>400.6926915659676</v>
       </c>
       <c r="F45" t="n">
-        <v>3025.093233488847</v>
+        <v>291.7328117484722</v>
       </c>
       <c r="G45" t="n">
-        <v>2918.195675260429</v>
+        <v>184.8352535200544</v>
       </c>
       <c r="H45" t="n">
-        <v>2848.342343501628</v>
+        <v>114.9819217612538</v>
       </c>
       <c r="I45" t="n">
-        <v>2830.780385847138</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J45" t="n">
-        <v>3032.163597022794</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K45" t="n">
-        <v>3032.163597022794</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L45" t="n">
-        <v>3712.947946260343</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M45" t="n">
-        <v>3784.034422542318</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N45" t="n">
-        <v>3784.034422542318</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O45" t="n">
-        <v>4509.574353831243</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P45" t="n">
-        <v>4509.574353831243</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q45" t="n">
-        <v>4870.998205338186</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R45" t="n">
-        <v>4870.998205338186</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="S45" t="n">
-        <v>4764.727353901733</v>
+        <v>2031.366932161359</v>
       </c>
       <c r="T45" t="n">
-        <v>4605.758549501929</v>
+        <v>1872.398127761555</v>
       </c>
       <c r="U45" t="n">
-        <v>4408.413827749177</v>
+        <v>1675.053406008803</v>
       </c>
       <c r="V45" t="n">
-        <v>4194.702300742211</v>
+        <v>1461.341879001837</v>
       </c>
       <c r="W45" t="n">
-        <v>3981.46913247854</v>
+        <v>1248.108710738165</v>
       </c>
       <c r="X45" t="n">
-        <v>3805.143150617433</v>
+        <v>1071.782728877058</v>
       </c>
       <c r="Y45" t="n">
-        <v>3645.741190981263</v>
+        <v>912.3807692408881</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3619.084238816141</v>
+        <v>686.1775077192748</v>
       </c>
       <c r="C46" t="n">
-        <v>3619.084238816141</v>
+        <v>515.0841352809913</v>
       </c>
       <c r="D46" t="n">
-        <v>3619.084238816141</v>
+        <v>355.5894906039013</v>
       </c>
       <c r="E46" t="n">
-        <v>3529.135826766617</v>
+        <v>194.6786754722208</v>
       </c>
       <c r="F46" t="n">
-        <v>3529.135826766617</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G46" t="n">
-        <v>3529.135826766617</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H46" t="n">
-        <v>3380.218257642934</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I46" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J46" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K46" t="n">
-        <v>3449.053008630019</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L46" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M46" t="n">
-        <v>4021.442036604621</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N46" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O46" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P46" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q46" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R46" t="n">
-        <v>4789.214420046789</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S46" t="n">
-        <v>4604.174913274182</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T46" t="n">
-        <v>4364.957714591686</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="U46" t="n">
-        <v>4082.163799567693</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="V46" t="n">
-        <v>4082.163799567693</v>
+        <v>1428.326732961952</v>
       </c>
       <c r="W46" t="n">
-        <v>4082.163799567693</v>
+        <v>1149.257068470827</v>
       </c>
       <c r="X46" t="n">
-        <v>3843.819937427377</v>
+        <v>910.9132063305101</v>
       </c>
       <c r="Y46" t="n">
-        <v>3619.084238816141</v>
+        <v>686.1775077192748</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>494.5586588013271</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8057,10 +8057,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>578.1780941808746</v>
@@ -8069,16 +8069,16 @@
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>499.2964884458369</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>67.39425105392507</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8218,19 +8218,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N5" t="n">
-        <v>534.7878950544006</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
@@ -8239,7 +8239,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>266.8093398682832</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>67.6779873391382</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>208.9223179663055</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N8" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,19 +8534,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>524.3053858067743</v>
+        <v>63.89502594283681</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
@@ -8771,19 +8771,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>752.1609013342966</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8792,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>356.0091697870508</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>389.0116646475603</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,22 +9479,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>263.2342577947056</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>191.4271838211926</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9503,7 +9503,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>42.71231595856356</v>
+        <v>42.71231595856355</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421728</v>
+        <v>41.02972279421726</v>
       </c>
       <c r="L24" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>100.5769260983221</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654929</v>
       </c>
       <c r="O24" t="n">
-        <v>35.95062976461617</v>
+        <v>534.4070738425849</v>
       </c>
       <c r="P24" t="n">
-        <v>36.76253149458871</v>
+        <v>36.76253149458869</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>44.99626817861586</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>53.31116889588057</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9959,16 +9959,16 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>36.2193952065451</v>
+        <v>36.21939520654508</v>
       </c>
       <c r="M27" t="n">
-        <v>34.3476070497872</v>
+        <v>34.34760704978719</v>
       </c>
       <c r="N27" t="n">
-        <v>426.0659948221394</v>
+        <v>29.36224035654929</v>
       </c>
       <c r="O27" t="n">
-        <v>35.95062976461617</v>
+        <v>432.6543842302061</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
@@ -10190,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>42.71231595856356</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>36.2193952065451</v>
+        <v>432.923149672135</v>
       </c>
       <c r="M30" t="n">
-        <v>313.0314650697931</v>
+        <v>34.34760704978719</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654929</v>
       </c>
       <c r="O30" t="n">
-        <v>35.95062976461617</v>
+        <v>35.95062976461615</v>
       </c>
       <c r="P30" t="n">
-        <v>36.76253149458871</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>42.71231595856356</v>
+        <v>42.71231595856355</v>
       </c>
       <c r="K33" t="n">
-        <v>41.02972279421728</v>
+        <v>41.02972279421726</v>
       </c>
       <c r="L33" t="n">
-        <v>36.2193952065451</v>
+        <v>36.21939520654508</v>
       </c>
       <c r="M33" t="n">
-        <v>34.3476070497872</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>315.7539583063247</v>
       </c>
       <c r="P33" t="n">
-        <v>57.78419190537087</v>
+        <v>36.76253149458869</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>44.99626817861586</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>53.31116889588057</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,25 +10667,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>41.02972279421728</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>36.21939520654508</v>
       </c>
       <c r="M36" t="n">
-        <v>34.3476070497872</v>
+        <v>34.34760704978719</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654929</v>
       </c>
       <c r="O36" t="n">
-        <v>35.95062976461617</v>
+        <v>432.6543842302061</v>
       </c>
       <c r="P36" t="n">
-        <v>264.6490629989706</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.99626817861586</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10901,10 +10901,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421726</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>36.21939520654507</v>
@@ -10913,19 +10913,19 @@
         <v>34.34760704978717</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654928</v>
       </c>
       <c r="O39" t="n">
-        <v>605.5858428059687</v>
+        <v>432.654384230206</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.99626817861586</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>53.31116889588057</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.438861768134</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>42.71231595856355</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
@@ -11153,16 +11153,16 @@
         <v>29.36224035654928</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>432.654384230206</v>
       </c>
       <c r="P42" t="n">
-        <v>524.4389769889194</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>53.31116889588057</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.438861768134</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11378,28 +11378,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>41.02972279421726</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>36.21939520654507</v>
       </c>
       <c r="M45" t="n">
-        <v>106.1521285467322</v>
+        <v>34.34760704978717</v>
       </c>
       <c r="N45" t="n">
         <v>29.36224035654928</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>432.654384230206</v>
       </c>
       <c r="P45" t="n">
-        <v>36.76253149458869</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>53.31116889588057</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>45.84716204233317</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>42.06483528720082</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>22.42553959831346</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>76.4356296479508</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>25.66401796922125</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>67.22558867982914</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>52.46603520923551</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>36.36515802722579</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23904,7 +23904,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>136.5105265353622</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>4.022088210043563</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.083197172522773</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>226.700255924823</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>17.7884604295883</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>24.37814464158723</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24378,7 +24378,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>49.29017704222807</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H25" t="n">
         <v>147.4283934324466</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>147.8142767156747</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>226.7002559248241</v>
       </c>
       <c r="I26" t="n">
-        <v>78.88597920914968</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>119.7437437231425</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24618,7 +24618,7 @@
         <v>165.5010685613433</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I28" t="n">
         <v>112.8724405582094</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>267.4437616802545</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>7.465500644384122</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>46.17393045162001</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>154.3455754348487</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>147.8142767156743</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>78.88597920914968</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>17.78846042958739</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>131.4981087313896</v>
+        <v>201.1684065320507</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>226.7002559248232</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>226.7002559248228</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>32.70329733818002</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.4283934324466</v>
+        <v>117.787453732667</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>226.7002559248241</v>
+        <v>17.7884604295877</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>74.15105757558941</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I40" t="n">
         <v>112.8724405582094</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S40" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T40" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>75.16466388649397</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>226.7002559248237</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.5010685613433</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>13.03306480611751</v>
       </c>
       <c r="S43" t="n">
         <v>183.1891117048806</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>190.028741387026</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>226.7002559248241</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>226.7002559248234</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>70.25277905133451</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>66.69869037871217</v>
       </c>
       <c r="G46" t="n">
         <v>165.5010685613433</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>711108.1100419675</v>
+        <v>711108.1100419674</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>711108.1100419674</v>
+        <v>711108.1100419675</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>730734.1613635608</v>
+        <v>730734.1613635609</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>730734.1613635607</v>
+        <v>730734.1613635609</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>730734.1613635608</v>
+        <v>730734.1613635611</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>730734.1613635608</v>
+        <v>730734.1613635609</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>730734.1613635607</v>
+        <v>730734.1613635609</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>730734.1613635607</v>
+        <v>730734.1613635609</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>439782.4611876338</v>
+        <v>439782.4611876337</v>
       </c>
       <c r="C2" t="n">
         <v>439782.4611876337</v>
       </c>
       <c r="D2" t="n">
-        <v>439782.4611876337</v>
+        <v>439782.4611876339</v>
       </c>
       <c r="E2" t="n">
-        <v>391025.7011723768</v>
+        <v>391025.7011723767</v>
       </c>
       <c r="F2" t="n">
+        <v>391025.7011723766</v>
+      </c>
+      <c r="G2" t="n">
         <v>391025.7011723769</v>
-      </c>
-      <c r="G2" t="n">
-        <v>391025.7011723768</v>
       </c>
       <c r="H2" t="n">
         <v>391025.7011723769</v>
@@ -26337,19 +26337,19 @@
         <v>403961.6927404206</v>
       </c>
       <c r="J2" t="n">
-        <v>403961.6927404205</v>
+        <v>403961.6927404206</v>
       </c>
       <c r="K2" t="n">
-        <v>403961.6927404206</v>
+        <v>403961.6927404208</v>
       </c>
       <c r="L2" t="n">
-        <v>403961.6927404206</v>
+        <v>403961.6927404208</v>
       </c>
       <c r="M2" t="n">
         <v>403961.6927404208</v>
       </c>
       <c r="N2" t="n">
-        <v>403961.6927404207</v>
+        <v>403961.6927404208</v>
       </c>
       <c r="O2" t="n">
         <v>403961.6927404206</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.62261588495</v>
+        <v>45948.62261588492</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006828</v>
+        <v>160358.4505006827</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213059.546279591</v>
+        <v>213059.5462795911</v>
       </c>
       <c r="C4" t="n">
-        <v>213059.546279591</v>
+        <v>213059.5462795911</v>
       </c>
       <c r="D4" t="n">
         <v>213059.5462795911</v>
@@ -26429,7 +26429,7 @@
         <v>89101.60277166063</v>
       </c>
       <c r="F4" t="n">
-        <v>89101.60277166062</v>
+        <v>89101.60277166063</v>
       </c>
       <c r="G4" t="n">
         <v>89101.60277166063</v>
@@ -26438,16 +26438,16 @@
         <v>89101.60277166063</v>
       </c>
       <c r="I4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="J4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="K4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="L4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="M4" t="n">
         <v>88152.90891079398</v>
@@ -26456,10 +26456,10 @@
         <v>88152.90891079398</v>
       </c>
       <c r="O4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="P4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>74967.83978868565</v>
+        <v>74967.83978868564</v>
       </c>
       <c r="J5" t="n">
         <v>74967.83978868564</v>
@@ -26499,7 +26499,7 @@
         <v>74967.83978868564</v>
       </c>
       <c r="L5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868565</v>
       </c>
       <c r="M5" t="n">
         <v>74967.83978868565</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13601.66006356885</v>
+        <v>-13601.66006356906</v>
       </c>
       <c r="C6" t="n">
+        <v>161353.8498295451</v>
+      </c>
+      <c r="D6" t="n">
         <v>161353.8498295452</v>
       </c>
-      <c r="D6" t="n">
-        <v>161353.8498295451</v>
-      </c>
       <c r="E6" t="n">
-        <v>38929.12525639962</v>
+        <v>38748.54466375045</v>
       </c>
       <c r="F6" t="n">
-        <v>231058.888155843</v>
+        <v>230878.3075631936</v>
       </c>
       <c r="G6" t="n">
-        <v>231058.8881558429</v>
+        <v>230878.3075631938</v>
       </c>
       <c r="H6" t="n">
-        <v>231058.888155843</v>
+        <v>230878.3075631938</v>
       </c>
       <c r="I6" t="n">
-        <v>194892.321425056</v>
+        <v>194759.6519122885</v>
       </c>
       <c r="J6" t="n">
-        <v>104246.143235046</v>
+        <v>104113.4737222786</v>
       </c>
       <c r="K6" t="n">
-        <v>240840.944040941</v>
+        <v>240708.2745281738</v>
       </c>
       <c r="L6" t="n">
-        <v>240840.944040941</v>
+        <v>240708.2745281736</v>
       </c>
       <c r="M6" t="n">
-        <v>80482.49354025838</v>
+        <v>80349.82402749096</v>
       </c>
       <c r="N6" t="n">
-        <v>240840.9440409411</v>
+        <v>240708.2745281736</v>
       </c>
       <c r="O6" t="n">
-        <v>240840.944040941</v>
+        <v>240708.2745281735</v>
       </c>
       <c r="P6" t="n">
-        <v>240840.944040941</v>
+        <v>240708.2745281735</v>
       </c>
     </row>
   </sheetData>
@@ -26758,19 +26758,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812885</v>
+        <v>42.59940676812889</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812885</v>
+        <v>42.59940676812889</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812885</v>
+        <v>42.59940676812889</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812885</v>
+        <v>42.59940676812889</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812885</v>
+        <v>42.59940676812889</v>
       </c>
       <c r="N3" t="n">
         <v>42.5994067681289</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812885</v>
+        <v>42.59940676812889</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.2033302017619</v>
+        <v>52.20333020176167</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700252</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627596</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>164.4415180694766</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>235.2752207238901</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>64.5486989451571</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -27596,7 +27596,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>89.29455036116087</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7330154719022</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>39.00870703637861</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>89.73159075659456</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>221.5920803845235</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>318.4470846671338</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>291.2627897368579</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28022,16 +28022,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>12.64465583764593</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>82.68617307340648</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1712538965552917</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096882</v>
+        <v>1.753853968096883</v>
       </c>
       <c r="I23" t="n">
-        <v>6.602265846947891</v>
+        <v>6.602265846947897</v>
       </c>
       <c r="J23" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394521</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L23" t="n">
-        <v>27.02514928064922</v>
+        <v>27.02514928064925</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351439</v>
+        <v>30.07068576351442</v>
       </c>
       <c r="N23" t="n">
-        <v>30.55726089710212</v>
+        <v>30.55726089710214</v>
       </c>
       <c r="O23" t="n">
-        <v>28.85435496323043</v>
+        <v>28.85435496323046</v>
       </c>
       <c r="P23" t="n">
-        <v>24.62652439202166</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.49349422163527</v>
+        <v>18.49349422163529</v>
       </c>
       <c r="R23" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949136</v>
       </c>
       <c r="S23" t="n">
-        <v>3.902448167753714</v>
+        <v>3.902448167753718</v>
       </c>
       <c r="T23" t="n">
-        <v>0.74966393217079</v>
+        <v>0.7496639321707905</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01370031172442334</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106961</v>
+        <v>0.09162891267106968</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8849423934284882</v>
+        <v>0.8849423934284889</v>
       </c>
       <c r="I24" t="n">
-        <v>3.15476738801709</v>
+        <v>3.154767388017093</v>
       </c>
       <c r="J24" t="n">
-        <v>8.656922841436451</v>
+        <v>8.656922841436458</v>
       </c>
       <c r="K24" t="n">
-        <v>14.79605999039811</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L24" t="n">
-        <v>19.89512860430395</v>
+        <v>19.89512860430397</v>
       </c>
       <c r="M24" t="n">
-        <v>23.21667668863022</v>
+        <v>23.21667668863024</v>
       </c>
       <c r="N24" t="n">
-        <v>23.83115303720069</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538383</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821504</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.69635032622285</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524833</v>
+        <v>5.689030209524837</v>
       </c>
       <c r="S24" t="n">
-        <v>1.701966864745524</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557585</v>
+        <v>0.3693288190557588</v>
       </c>
       <c r="U24" t="n">
-        <v>0.00602821793888616</v>
+        <v>0.006028217938886166</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875694</v>
+        <v>0.076818602368757</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6829872101513121</v>
+        <v>0.6829872101513127</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507709</v>
+        <v>2.310144878507711</v>
       </c>
       <c r="J25" t="n">
-        <v>5.431075187471115</v>
+        <v>5.431075187471119</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388305</v>
+        <v>8.924924893388312</v>
       </c>
       <c r="L25" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944229</v>
       </c>
       <c r="M25" t="n">
-        <v>12.04166509676796</v>
+        <v>12.04166509676797</v>
       </c>
       <c r="N25" t="n">
         <v>11.7553412152117</v>
       </c>
       <c r="O25" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935849</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035835</v>
+        <v>9.290860781035843</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987456</v>
+        <v>6.432510421987462</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871561</v>
+        <v>3.454043702871564</v>
       </c>
       <c r="S25" t="n">
-        <v>1.338738734008246</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3282249373937796</v>
+        <v>0.3282249373937798</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004190105583750383</v>
+        <v>0.004190105583750387</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1712538965552917</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096882</v>
+        <v>1.753853968096883</v>
       </c>
       <c r="I26" t="n">
-        <v>6.602265846947891</v>
+        <v>6.602265846947897</v>
       </c>
       <c r="J26" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394521</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L26" t="n">
-        <v>27.02514928064922</v>
+        <v>27.02514928064925</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351439</v>
+        <v>30.07068576351442</v>
       </c>
       <c r="N26" t="n">
-        <v>30.55726089710212</v>
+        <v>30.55726089710214</v>
       </c>
       <c r="O26" t="n">
-        <v>28.85435496323043</v>
+        <v>28.85435496323046</v>
       </c>
       <c r="P26" t="n">
-        <v>24.62652439202166</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.49349422163527</v>
+        <v>18.49349422163529</v>
       </c>
       <c r="R26" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949136</v>
       </c>
       <c r="S26" t="n">
-        <v>3.902448167753714</v>
+        <v>3.902448167753718</v>
       </c>
       <c r="T26" t="n">
-        <v>0.74966393217079</v>
+        <v>0.7496639321707905</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01370031172442334</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106961</v>
+        <v>0.09162891267106968</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8849423934284882</v>
+        <v>0.8849423934284889</v>
       </c>
       <c r="I27" t="n">
-        <v>3.15476738801709</v>
+        <v>3.154767388017093</v>
       </c>
       <c r="J27" t="n">
-        <v>8.656922841436451</v>
+        <v>8.656922841436458</v>
       </c>
       <c r="K27" t="n">
-        <v>14.79605999039811</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L27" t="n">
-        <v>19.89512860430395</v>
+        <v>19.89512860430397</v>
       </c>
       <c r="M27" t="n">
-        <v>23.21667668863022</v>
+        <v>23.21667668863024</v>
       </c>
       <c r="N27" t="n">
-        <v>23.83115303720069</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538383</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821504</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.69635032622285</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524833</v>
+        <v>5.689030209524837</v>
       </c>
       <c r="S27" t="n">
-        <v>1.701966864745524</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557585</v>
+        <v>0.3693288190557588</v>
       </c>
       <c r="U27" t="n">
-        <v>0.00602821793888616</v>
+        <v>0.006028217938886166</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875694</v>
+        <v>0.076818602368757</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6829872101513121</v>
+        <v>0.6829872101513127</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507709</v>
+        <v>2.310144878507711</v>
       </c>
       <c r="J28" t="n">
-        <v>5.431075187471115</v>
+        <v>5.431075187471119</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388305</v>
+        <v>8.924924893388312</v>
       </c>
       <c r="L28" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944229</v>
       </c>
       <c r="M28" t="n">
-        <v>12.04166509676796</v>
+        <v>12.04166509676797</v>
       </c>
       <c r="N28" t="n">
         <v>11.7553412152117</v>
       </c>
       <c r="O28" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935849</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035835</v>
+        <v>9.290860781035843</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987456</v>
+        <v>6.432510421987462</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871561</v>
+        <v>3.454043702871564</v>
       </c>
       <c r="S28" t="n">
-        <v>1.338738734008246</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3282249373937796</v>
+        <v>0.3282249373937798</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004190105583750383</v>
+        <v>0.004190105583750387</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1712538965552917</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096882</v>
+        <v>1.753853968096883</v>
       </c>
       <c r="I29" t="n">
-        <v>6.602265846947891</v>
+        <v>6.602265846947897</v>
       </c>
       <c r="J29" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394521</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L29" t="n">
-        <v>27.02514928064922</v>
+        <v>27.02514928064925</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351439</v>
+        <v>30.07068576351442</v>
       </c>
       <c r="N29" t="n">
-        <v>30.55726089710212</v>
+        <v>30.55726089710214</v>
       </c>
       <c r="O29" t="n">
-        <v>28.85435496323043</v>
+        <v>28.85435496323046</v>
       </c>
       <c r="P29" t="n">
-        <v>24.62652439202166</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.49349422163527</v>
+        <v>18.49349422163529</v>
       </c>
       <c r="R29" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949136</v>
       </c>
       <c r="S29" t="n">
-        <v>3.902448167753714</v>
+        <v>3.902448167753718</v>
       </c>
       <c r="T29" t="n">
-        <v>0.74966393217079</v>
+        <v>0.7496639321707905</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01370031172442334</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106961</v>
+        <v>0.09162891267106968</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8849423934284882</v>
+        <v>0.8849423934284889</v>
       </c>
       <c r="I30" t="n">
-        <v>3.15476738801709</v>
+        <v>3.154767388017093</v>
       </c>
       <c r="J30" t="n">
-        <v>8.656922841436451</v>
+        <v>8.656922841436458</v>
       </c>
       <c r="K30" t="n">
-        <v>14.79605999039811</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L30" t="n">
-        <v>19.89512860430395</v>
+        <v>19.89512860430397</v>
       </c>
       <c r="M30" t="n">
-        <v>23.21667668863022</v>
+        <v>23.21667668863024</v>
       </c>
       <c r="N30" t="n">
-        <v>23.83115303720069</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538383</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821504</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.69635032622285</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524833</v>
+        <v>5.689030209524837</v>
       </c>
       <c r="S30" t="n">
-        <v>1.701966864745524</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557585</v>
+        <v>0.3693288190557588</v>
       </c>
       <c r="U30" t="n">
-        <v>0.00602821793888616</v>
+        <v>0.006028217938886166</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875694</v>
+        <v>0.076818602368757</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6829872101513121</v>
+        <v>0.6829872101513127</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507709</v>
+        <v>2.310144878507711</v>
       </c>
       <c r="J31" t="n">
-        <v>5.431075187471115</v>
+        <v>5.431075187471119</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388305</v>
+        <v>8.924924893388312</v>
       </c>
       <c r="L31" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944229</v>
       </c>
       <c r="M31" t="n">
-        <v>12.04166509676796</v>
+        <v>12.04166509676797</v>
       </c>
       <c r="N31" t="n">
         <v>11.7553412152117</v>
       </c>
       <c r="O31" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935849</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035835</v>
+        <v>9.290860781035843</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987456</v>
+        <v>6.432510421987462</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871561</v>
+        <v>3.454043702871564</v>
       </c>
       <c r="S31" t="n">
-        <v>1.338738734008246</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3282249373937796</v>
+        <v>0.3282249373937798</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004190105583750383</v>
+        <v>0.004190105583750387</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1712538965552917</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096882</v>
+        <v>1.753853968096883</v>
       </c>
       <c r="I32" t="n">
-        <v>6.602265846947891</v>
+        <v>6.602265846947897</v>
       </c>
       <c r="J32" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394521</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L32" t="n">
-        <v>27.02514928064922</v>
+        <v>27.02514928064925</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351439</v>
+        <v>30.07068576351442</v>
       </c>
       <c r="N32" t="n">
-        <v>30.55726089710212</v>
+        <v>30.55726089710214</v>
       </c>
       <c r="O32" t="n">
-        <v>28.85435496323043</v>
+        <v>28.85435496323046</v>
       </c>
       <c r="P32" t="n">
-        <v>24.62652439202166</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.49349422163527</v>
+        <v>18.49349422163529</v>
       </c>
       <c r="R32" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949136</v>
       </c>
       <c r="S32" t="n">
-        <v>3.902448167753714</v>
+        <v>3.902448167753718</v>
       </c>
       <c r="T32" t="n">
-        <v>0.74966393217079</v>
+        <v>0.7496639321707905</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01370031172442334</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106961</v>
+        <v>0.09162891267106968</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8849423934284882</v>
+        <v>0.8849423934284889</v>
       </c>
       <c r="I33" t="n">
-        <v>3.15476738801709</v>
+        <v>3.154767388017093</v>
       </c>
       <c r="J33" t="n">
-        <v>8.656922841436451</v>
+        <v>8.656922841436458</v>
       </c>
       <c r="K33" t="n">
-        <v>14.79605999039811</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L33" t="n">
-        <v>19.89512860430395</v>
+        <v>19.89512860430397</v>
       </c>
       <c r="M33" t="n">
-        <v>23.21667668863022</v>
+        <v>23.21667668863024</v>
       </c>
       <c r="N33" t="n">
-        <v>23.83115303720069</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538383</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821504</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.69635032622285</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524833</v>
+        <v>5.689030209524837</v>
       </c>
       <c r="S33" t="n">
-        <v>1.701966864745524</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557585</v>
+        <v>0.3693288190557588</v>
       </c>
       <c r="U33" t="n">
-        <v>0.00602821793888616</v>
+        <v>0.006028217938886166</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875694</v>
+        <v>0.076818602368757</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6829872101513121</v>
+        <v>0.6829872101513127</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507709</v>
+        <v>2.310144878507711</v>
       </c>
       <c r="J34" t="n">
-        <v>5.431075187471115</v>
+        <v>5.431075187471119</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388305</v>
+        <v>8.924924893388312</v>
       </c>
       <c r="L34" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944229</v>
       </c>
       <c r="M34" t="n">
-        <v>12.04166509676796</v>
+        <v>12.04166509676797</v>
       </c>
       <c r="N34" t="n">
         <v>11.7553412152117</v>
       </c>
       <c r="O34" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935849</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035835</v>
+        <v>9.290860781035843</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987456</v>
+        <v>6.432510421987462</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871561</v>
+        <v>3.454043702871564</v>
       </c>
       <c r="S34" t="n">
-        <v>1.338738734008246</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3282249373937796</v>
+        <v>0.3282249373937798</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004190105583750383</v>
+        <v>0.004190105583750387</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1712538965552917</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096882</v>
+        <v>1.753853968096883</v>
       </c>
       <c r="I35" t="n">
-        <v>6.602265846947891</v>
+        <v>6.602265846947897</v>
       </c>
       <c r="J35" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394521</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L35" t="n">
-        <v>27.02514928064922</v>
+        <v>27.02514928064925</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351439</v>
+        <v>30.07068576351442</v>
       </c>
       <c r="N35" t="n">
-        <v>30.55726089710212</v>
+        <v>30.55726089710214</v>
       </c>
       <c r="O35" t="n">
-        <v>28.85435496323043</v>
+        <v>28.85435496323046</v>
       </c>
       <c r="P35" t="n">
-        <v>24.62652439202166</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.49349422163527</v>
+        <v>18.49349422163529</v>
       </c>
       <c r="R35" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949136</v>
       </c>
       <c r="S35" t="n">
-        <v>3.902448167753714</v>
+        <v>3.902448167753718</v>
       </c>
       <c r="T35" t="n">
-        <v>0.74966393217079</v>
+        <v>0.7496639321707905</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01370031172442334</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106961</v>
+        <v>0.09162891267106968</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8849423934284882</v>
+        <v>0.8849423934284889</v>
       </c>
       <c r="I36" t="n">
-        <v>3.15476738801709</v>
+        <v>3.154767388017093</v>
       </c>
       <c r="J36" t="n">
-        <v>8.656922841436451</v>
+        <v>8.656922841436458</v>
       </c>
       <c r="K36" t="n">
-        <v>14.79605999039811</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L36" t="n">
-        <v>19.89512860430395</v>
+        <v>19.89512860430397</v>
       </c>
       <c r="M36" t="n">
-        <v>23.21667668863022</v>
+        <v>23.21667668863024</v>
       </c>
       <c r="N36" t="n">
-        <v>23.83115303720069</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538383</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821504</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.69635032622285</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524833</v>
+        <v>5.689030209524837</v>
       </c>
       <c r="S36" t="n">
-        <v>1.701966864745524</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557585</v>
+        <v>0.3693288190557588</v>
       </c>
       <c r="U36" t="n">
-        <v>0.00602821793888616</v>
+        <v>0.006028217938886166</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875694</v>
+        <v>0.076818602368757</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6829872101513121</v>
+        <v>0.6829872101513127</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507709</v>
+        <v>2.310144878507711</v>
       </c>
       <c r="J37" t="n">
-        <v>5.431075187471115</v>
+        <v>5.431075187471119</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388305</v>
+        <v>8.924924893388312</v>
       </c>
       <c r="L37" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944229</v>
       </c>
       <c r="M37" t="n">
-        <v>12.04166509676796</v>
+        <v>12.04166509676797</v>
       </c>
       <c r="N37" t="n">
         <v>11.7553412152117</v>
       </c>
       <c r="O37" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935849</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035835</v>
+        <v>9.290860781035843</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987456</v>
+        <v>6.432510421987462</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871561</v>
+        <v>3.454043702871564</v>
       </c>
       <c r="S37" t="n">
-        <v>1.338738734008246</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3282249373937796</v>
+        <v>0.3282249373937798</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004190105583750383</v>
+        <v>0.004190105583750387</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34704,19 +34704,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>400.9092955204429</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>522.0635703700256</v>
@@ -34789,16 +34789,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>445.0368534430332</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>10.70163254908636</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34938,19 +34938,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>441.8756042977812</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
@@ -34959,7 +34959,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>14.48459394538821</v>
+      </c>
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M6" t="n">
-        <v>209.2450561298658</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>135.5987266329975</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>471.1119924130244</v>
+        <v>10.70163254908682</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>694.4094223342966</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>298.4448860486334</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>333.1858818629449</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>207.1197339838565</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>133.6757048211926</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>746.8144420202835</v>
       </c>
       <c r="M23" t="n">
-        <v>814.2308786844779</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N23" t="n">
-        <v>791.3461665926758</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O23" t="n">
         <v>678.9865331623263</v>
@@ -36381,7 +36381,7 @@
         <v>342.8985515906171</v>
       </c>
       <c r="R23" t="n">
-        <v>51.72383635682955</v>
+        <v>51.72383635682957</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>687.6609588258073</v>
       </c>
       <c r="M24" t="n">
-        <v>66.22931904853488</v>
+        <v>874.7086773902128</v>
       </c>
       <c r="N24" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>498.4564440779687</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>365.0745974817616</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>35.54713057581765</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>19.65587256647164</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K25" t="n">
         <v>165.0383872390832</v>
@@ -36527,7 +36527,7 @@
         <v>304.2275806932258</v>
       </c>
       <c r="N25" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O25" t="n">
         <v>273.0403949425647</v>
@@ -36603,10 +36603,10 @@
         <v>746.8144420202835</v>
       </c>
       <c r="M26" t="n">
-        <v>814.2308786844779</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N26" t="n">
-        <v>791.3461665926758</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O26" t="n">
         <v>678.9865331623263</v>
@@ -36618,7 +36618,7 @@
         <v>342.8985515906171</v>
       </c>
       <c r="R26" t="n">
-        <v>51.72383635682955</v>
+        <v>51.72383635682957</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>396.7037544655901</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="P27" t="n">
-        <v>584.8767928905686</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q27" t="n">
         <v>365.0745974817616</v>
       </c>
       <c r="R27" t="n">
-        <v>35.54713057581765</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.65587256647164</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K28" t="n">
         <v>165.0383872390832</v>
@@ -36764,7 +36764,7 @@
         <v>304.2275806932258</v>
       </c>
       <c r="N28" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O28" t="n">
         <v>273.0403949425647</v>
@@ -36840,10 +36840,10 @@
         <v>746.8144420202835</v>
       </c>
       <c r="M29" t="n">
-        <v>814.2308786844779</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N29" t="n">
-        <v>791.3461665926758</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O29" t="n">
         <v>678.9865331623263</v>
@@ -36855,7 +36855,7 @@
         <v>342.8985515906171</v>
       </c>
       <c r="R29" t="n">
-        <v>51.72383635682955</v>
+        <v>51.72383635682957</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K30" t="n">
         <v>475.2064198543362</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="M30" t="n">
-        <v>278.6838580200059</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q30" t="n">
         <v>365.0745974817616</v>
       </c>
       <c r="R30" t="n">
-        <v>35.54713057581765</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>19.65587256647164</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K31" t="n">
         <v>165.0383872390832</v>
@@ -37001,7 +37001,7 @@
         <v>304.2275806932258</v>
       </c>
       <c r="N31" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O31" t="n">
         <v>273.0403949425647</v>
@@ -37077,10 +37077,10 @@
         <v>746.8144420202835</v>
       </c>
       <c r="M32" t="n">
-        <v>814.2308786844779</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N32" t="n">
-        <v>791.3461665926758</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O32" t="n">
         <v>678.9865331623263</v>
@@ -37092,7 +37092,7 @@
         <v>342.8985515906171</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72383635682955</v>
+        <v>51.72383635682957</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>874.7086773902128</v>
       </c>
       <c r="N33" t="n">
         <v>906.3140743620672</v>
       </c>
       <c r="O33" t="n">
-        <v>732.8686174635599</v>
+        <v>279.8033285417085</v>
       </c>
       <c r="P33" t="n">
-        <v>21.02166041078215</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>365.0745974817616</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.54713057581765</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>19.65587256647164</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K34" t="n">
         <v>165.0383872390832</v>
@@ -37238,7 +37238,7 @@
         <v>304.2275806932258</v>
       </c>
       <c r="N34" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O34" t="n">
         <v>273.0403949425647</v>
@@ -37314,10 +37314,10 @@
         <v>746.8144420202835</v>
       </c>
       <c r="M35" t="n">
-        <v>814.2308786844779</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N35" t="n">
-        <v>791.3461665926758</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O35" t="n">
         <v>678.9865331623263</v>
@@ -37329,7 +37329,7 @@
         <v>342.8985515906171</v>
       </c>
       <c r="R35" t="n">
-        <v>51.72383635682955</v>
+        <v>51.72383635682957</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>203.4173850259145</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L36" t="n">
-        <v>687.6609588258073</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="P36" t="n">
-        <v>227.8865315043818</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R36" t="n">
-        <v>35.54713057581765</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.65587256647164</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K37" t="n">
         <v>165.0383872390832</v>
@@ -37475,7 +37475,7 @@
         <v>304.2275806932258</v>
       </c>
       <c r="N37" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O37" t="n">
         <v>273.0403949425647</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>569.6352130413526</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="P39" t="n">
         <v>584.8767928905687</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>559.1282394618717</v>
       </c>
       <c r="Q41" t="n">
-        <v>342.8985515906173</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R41" t="n">
-        <v>51.72383635682957</v>
+        <v>51.72383635682961</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K42" t="n">
         <v>475.2064198543362</v>
@@ -37873,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>732.86861746356</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="P42" t="n">
-        <v>487.6764454943308</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q42" t="n">
         <v>365.0745974817616</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>559.1282394618717</v>
       </c>
       <c r="Q44" t="n">
-        <v>342.8985515906173</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R44" t="n">
-        <v>51.72383635682957</v>
+        <v>51.72383635682961</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>203.4173850259145</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L45" t="n">
-        <v>687.6609588258073</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>71.80452149694504</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>732.86861746356</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q45" t="n">
         <v>365.0745974817616</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
